--- a/biology/Zoologie/Coleophora_epijudaica/Coleophora_epijudaica.xlsx
+++ b/biology/Zoologie/Coleophora_epijudaica/Coleophora_epijudaica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coleophora epijudaica est une espèce de lépidoptères (un papillon de nuit) de la famille des Coleophoridae. On le trouve principalement en Crète, en Espagne et dans les Territoires palestiniens.
 Sur les autres projets Wikimedia :
